--- a/Cau hoi_TV.xlsx
+++ b/Cau hoi_TV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ky1nam4\LT web\Cau hoi trac nghiem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820153C3-9A87-4E5A-B3A9-1541A4FA0DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C819EE1-8C39-489A-9D22-9C4189BBC8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{65392B34-F4BB-4793-9E4B-540CCF7BE411}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>STT</t>
   </si>
@@ -83,26 +83,23 @@
     <t>https://azota.vn/de-thi/fbdmpa</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>link azota</t>
   </si>
   <si>
     <t>https://azota.vn/de-thi/txgdxe</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>https://azota.vn/de-thi/4kvnyc</t>
+  </si>
+  <si>
+    <t>Chủ đề</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +114,26 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -140,15 +157,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -159,6 +264,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3EC87A01-A8B2-401A-8FB0-122E74E24E0B}" name="Table1" displayName="Table1" ref="A2:C10" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A2:C10" xr:uid="{3EC87A01-A8B2-401A-8FB0-122E74E24E0B}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{A71C10BA-DB2C-4F9C-99D6-86DED5123FC1}" name="STT" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{D4327604-A2D2-44F6-8E0F-6E9BD6A0A034}" name="Chủ đề" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{74B53F0A-CC06-4229-97D1-CB0DC73ABE28}" name="link azota" dataDxfId="2" dataCellStyle="Hyperlink"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -458,132 +575,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F7EBFCB-91DB-43C2-ABE5-DAC89EC6BF37}">
-  <dimension ref="A2:E10"/>
+  <dimension ref="A2:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.453125" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" customWidth="1"/>
-    <col min="4" max="4" width="28.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" xr:uid="{4F1385BA-D430-4C39-BEDD-CF05D9823D8D}"/>
-    <hyperlink ref="D8" r:id="rId2" xr:uid="{67A966B8-A5E0-4317-9E2E-25AC5F080923}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{EB8FCE41-FF54-4CF9-84C2-098C2A50E0E6}"/>
-    <hyperlink ref="D4" r:id="rId4" xr:uid="{165BEC81-82B1-4665-95C1-EA7700E1403F}"/>
-    <hyperlink ref="D5" r:id="rId5" xr:uid="{EBF9E168-3063-426A-94B5-4AA9888A3C1C}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{05A93D50-926C-4F32-A888-A7BDA3A83C15}"/>
-    <hyperlink ref="D9" r:id="rId7" xr:uid="{4C7688D7-AB77-4AE3-811F-E1054972A3A1}"/>
-    <hyperlink ref="D10" r:id="rId8" xr:uid="{EC613F13-43BC-4761-BF7B-BC99BCDE3D5D}"/>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{4F1385BA-D430-4C39-BEDD-CF05D9823D8D}"/>
+    <hyperlink ref="C8" r:id="rId2" xr:uid="{67A966B8-A5E0-4317-9E2E-25AC5F080923}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{EB8FCE41-FF54-4CF9-84C2-098C2A50E0E6}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{165BEC81-82B1-4665-95C1-EA7700E1403F}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{EBF9E168-3063-426A-94B5-4AA9888A3C1C}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{05A93D50-926C-4F32-A888-A7BDA3A83C15}"/>
+    <hyperlink ref="C9" r:id="rId7" xr:uid="{4C7688D7-AB77-4AE3-811F-E1054972A3A1}"/>
+    <hyperlink ref="C10" r:id="rId8" xr:uid="{EC613F13-43BC-4761-BF7B-BC99BCDE3D5D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId9"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Cau hoi_TV.xlsx
+++ b/Cau hoi_TV.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ky1nam4\LT web\Cau hoi trac nghiem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ky1nam4\LT web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C819EE1-8C39-489A-9D22-9C4189BBC8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2393A57E-06E7-4E0A-930A-B41719E6AFA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{65392B34-F4BB-4793-9E4B-540CCF7BE411}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>STT</t>
   </si>
@@ -74,25 +74,52 @@
     <t>https://azota.vn/de-thi/vxi1tf</t>
   </si>
   <si>
-    <t>https://azota.vn/de-thi/i8ec2e</t>
-  </si>
-  <si>
     <t>https://azota.vn/de-thi/xefclw</t>
   </si>
   <si>
-    <t>https://azota.vn/de-thi/fbdmpa</t>
-  </si>
-  <si>
     <t>link azota</t>
   </si>
   <si>
-    <t>https://azota.vn/de-thi/txgdxe</t>
-  </si>
-  <si>
-    <t>https://azota.vn/de-thi/4kvnyc</t>
-  </si>
-  <si>
     <t>Chủ đề</t>
+  </si>
+  <si>
+    <t>link w3s</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/html/html_quiz.asp</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/css/css_quiz.asp</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/js/js_quiz.asp</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/php/php_quiz.asp</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/mysql/mysql_quiz.asp</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/xml/xml_quiz.asp</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/jquery/jquery_quiz.asp</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/bootstrap/bootstrap_quiz.asp</t>
+  </si>
+  <si>
+    <t>https://azota.vn/de-thi/f71odl</t>
+  </si>
+  <si>
+    <t>https://azota.vn/de-thi/snpzis</t>
+  </si>
+  <si>
+    <t>https://azota.vn/de-thi/nq1rgl</t>
+  </si>
+  <si>
+    <t>https://azota.vn/de-thi/qofd0b</t>
   </si>
 </sst>
 </file>
@@ -157,7 +184,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -168,32 +195,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -253,6 +264,28 @@
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -267,12 +300,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3EC87A01-A8B2-401A-8FB0-122E74E24E0B}" name="Table1" displayName="Table1" ref="A2:C10" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A2:C10" xr:uid="{3EC87A01-A8B2-401A-8FB0-122E74E24E0B}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A71C10BA-DB2C-4F9C-99D6-86DED5123FC1}" name="STT" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{D4327604-A2D2-44F6-8E0F-6E9BD6A0A034}" name="Chủ đề" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{74B53F0A-CC06-4229-97D1-CB0DC73ABE28}" name="link azota" dataDxfId="2" dataCellStyle="Hyperlink"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3EC87A01-A8B2-401A-8FB0-122E74E24E0B}" name="Table1" displayName="Table1" ref="A2:D10" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A2:D10" xr:uid="{3EC87A01-A8B2-401A-8FB0-122E74E24E0B}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{A71C10BA-DB2C-4F9C-99D6-86DED5123FC1}" name="STT" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{D4327604-A2D2-44F6-8E0F-6E9BD6A0A034}" name="Chủ đề" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{74B53F0A-CC06-4229-97D1-CB0DC73ABE28}" name="link azota" dataDxfId="1" dataCellStyle="Hyperlink"/>
+    <tableColumn id="4" xr3:uid="{C333089A-3192-4053-B0D8-70662E86A483}" name="link w3s" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -575,31 +609,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F7EBFCB-91DB-43C2-ABE5-DAC89EC6BF37}">
-  <dimension ref="A2:C10"/>
+  <dimension ref="A2:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" customWidth="1"/>
+    <col min="3" max="3" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -609,30 +646,39 @@
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,19 +688,25 @@
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D6" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,43 +716,59 @@
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D8" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>17</v>
+      <c r="C10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" xr:uid="{4F1385BA-D430-4C39-BEDD-CF05D9823D8D}"/>
     <hyperlink ref="C8" r:id="rId2" xr:uid="{67A966B8-A5E0-4317-9E2E-25AC5F080923}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{EB8FCE41-FF54-4CF9-84C2-098C2A50E0E6}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{165BEC81-82B1-4665-95C1-EA7700E1403F}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{EBF9E168-3063-426A-94B5-4AA9888A3C1C}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{05A93D50-926C-4F32-A888-A7BDA3A83C15}"/>
-    <hyperlink ref="C9" r:id="rId7" xr:uid="{4C7688D7-AB77-4AE3-811F-E1054972A3A1}"/>
-    <hyperlink ref="C10" r:id="rId8" xr:uid="{EC613F13-43BC-4761-BF7B-BC99BCDE3D5D}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{165BEC81-82B1-4665-95C1-EA7700E1403F}"/>
+    <hyperlink ref="D3" r:id="rId4" xr:uid="{CBB4F22F-99BC-4A95-B63E-E29408A1A614}"/>
+    <hyperlink ref="D4" r:id="rId5" xr:uid="{BBEFAD23-AB26-4CA3-B5E6-E8ED90E22F76}"/>
+    <hyperlink ref="D5" r:id="rId6" xr:uid="{7BC3E94D-A023-4110-823D-486E6E630954}"/>
+    <hyperlink ref="D6" r:id="rId7" xr:uid="{9D6401F4-7008-457C-A24F-49314EA33866}"/>
+    <hyperlink ref="D7" r:id="rId8" xr:uid="{1838DCEE-3BF9-4734-942C-4A089DC1A10B}"/>
+    <hyperlink ref="D8" r:id="rId9" xr:uid="{D38E6928-6077-48FE-8EFB-613DBE9AF02C}"/>
+    <hyperlink ref="D9" r:id="rId10" xr:uid="{095146FB-5AAA-41E4-B84C-E8B8468AE710}"/>
+    <hyperlink ref="D10" r:id="rId11" xr:uid="{A96C0E24-7B3C-4AA8-9B9B-F16AD3928F55}"/>
+    <hyperlink ref="C5" r:id="rId12" xr:uid="{0BE05A5C-2A33-4D4F-839B-295F73DEE183}"/>
+    <hyperlink ref="C7" r:id="rId13" xr:uid="{4A388A9D-73EF-40D8-8C97-5937AA5DFBDC}"/>
+    <hyperlink ref="C9" r:id="rId14" xr:uid="{34759D89-997C-4629-8CBE-BD67433E77B3}"/>
+    <hyperlink ref="C10" r:id="rId15" xr:uid="{36009841-1683-4434-B551-457FFF7F0278}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId16"/>
   </tableParts>
 </worksheet>
 </file>